--- a/Project Documents/Zeiterfassung.xlsx
+++ b/Project Documents/Zeiterfassung.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t xml:space="preserve">Projektname: HeyBrain</t>
   </si>
   <si>
     <t xml:space="preserve">Zeiterfassung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gesamte Zeit:</t>
   </si>
   <si>
     <t xml:space="preserve">Mattias Wunder</t>
@@ -539,20 +542,26 @@
   </sheetPr>
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T16" activeCellId="0" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="5.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="20.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="20.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -605,8 +614,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <f aca="false">D12+I12+N12+S12</f>
+        <v>47.75</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -628,28 +642,28 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="1"/>
       <c r="L4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
@@ -658,55 +672,55 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -738,29 +752,29 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6" s="10" t="n">
         <v>44538</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="T6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -775,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="0" t="n">
@@ -788,7 +802,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="0" t="n">
@@ -801,7 +815,7 @@
         <v>4</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="0" t="n">
@@ -814,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="T7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,7 +843,7 @@
         <v>2.5</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="0" t="n">
@@ -842,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="0" t="n">
@@ -855,7 +869,7 @@
         <v>3</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="0" t="n">
@@ -868,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="T8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -883,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="0" t="n">
@@ -896,7 +910,7 @@
         <v>3.5</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="0" t="n">
@@ -909,7 +923,7 @@
         <v>2.5</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="0" t="n">
@@ -922,7 +936,7 @@
         <v>0.5</v>
       </c>
       <c r="T9" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,7 +951,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="0" t="n">
@@ -950,7 +964,7 @@
         <v>4.5</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" s="1"/>
       <c r="P10" s="1"/>
@@ -964,10 +978,10 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">D6+D7+D8+D9+D10+D13</f>
@@ -975,10 +989,10 @@
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">I6+I7+I8+I10+I9+I20</f>
@@ -986,20 +1000,20 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>9.75</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S12" s="7" t="n">
         <v>9.5</v>
